--- a/forecast_summary_B0D8WKK29M.xlsx
+++ b/forecast_summary_B0D8WKK29M.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-7.416874303623008</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7404183189260616</v>
+        <v>0.678899988521505</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-4.535981718327458</v>
       </c>
       <c r="D3" t="n">
-        <v>3.727084869603655</v>
+        <v>2.922473294969923</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>16.53387638915965</v>
       </c>
       <c r="D4" t="n">
-        <v>23.90280876390663</v>
+        <v>24.42092639320005</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>34.11939061133631</v>
       </c>
       <c r="D5" t="n">
-        <v>42.29600530480415</v>
+        <v>42.06771328500662</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>13.93373070739539</v>
       </c>
       <c r="D6" t="n">
-        <v>21.78357084487673</v>
+        <v>21.92295502660724</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-41.0838869437526</v>
       </c>
       <c r="D7" t="n">
-        <v>-33.19691176714277</v>
+        <v>-33.07896437636262</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-76.65346278117615</v>
       </c>
       <c r="D8" t="n">
-        <v>-69.00616075040354</v>
+        <v>-69.0275111170903</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-45.62469653358616</v>
       </c>
       <c r="D9" t="n">
-        <v>-38.18846333035462</v>
+        <v>-37.8098843888642</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>23.8606787123295</v>
       </c>
       <c r="D10" t="n">
-        <v>31.67218538281426</v>
+        <v>32.05372949103928</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>47.17499020394388</v>
       </c>
       <c r="D11" t="n">
-        <v>54.78127767321549</v>
+        <v>55.21342710589676</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-15.01927507661654</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.574936390324627</v>
+        <v>-7.522388583991259</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-95.41350252672171</v>
       </c>
       <c r="D13" t="n">
-        <v>-87.72396268841992</v>
+        <v>-86.8806232505508</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-92.12913944616076</v>
       </c>
       <c r="D14" t="n">
-        <v>-84.14361666035289</v>
+        <v>-84.95397839968633</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>0.06577596270866899</v>
       </c>
       <c r="D15" t="n">
-        <v>7.70236893276915</v>
+        <v>7.703521387377486</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>68.24892155413973</v>
       </c>
       <c r="D16" t="n">
-        <v>76.2272930304047</v>
+        <v>75.03504345986177</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>16.01286076445175</v>
       </c>
       <c r="D17" t="n">
-        <v>23.41266810280658</v>
+        <v>24.5042523496564</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-104.6347460271656</v>
       </c>
       <c r="D18" t="n">
-        <v>-96.78620917145251</v>
+        <v>-96.61361210038426</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-142.597928738328</v>
       </c>
       <c r="D19" t="n">
-        <v>-135.0997875865736</v>
+        <v>-135.6489899220512</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-37.03135397640946</v>
       </c>
       <c r="D20" t="n">
-        <v>-29.56224876857122</v>
+        <v>-29.44359104351426</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>88.53465927950559</v>
       </c>
       <c r="D21" t="n">
-        <v>96.40169726404635</v>
+        <v>95.97101270888254</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650M C V3</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
